--- a/Documents/BugReports.xlsx
+++ b/Documents/BugReports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohmiwing/Documents/UnityProjects/Personal/２D/SujiShuriken/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6149036-2BC3-AF43-8131-E93BC1200BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A3DE1-C722-DB41-BEAC-6987530F6ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" activeTab="1" xr2:uid="{FECAFB7A-A84A-3948-989D-D7DCD2E77040}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{FECAFB7A-A84A-3948-989D-D7DCD2E77040}"/>
   </bookViews>
   <sheets>
     <sheet name="方眼紙" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ß</t>
     <phoneticPr fontId="1"/>
@@ -44,12 +44,44 @@
     <t>左下でドロップしたら手裏剣が消える</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>原因：BottomShredderが手裏剣をDestroyしていたため。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンイｎ </t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t xml:space="preserve">シュリケｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決：BottomShredderの座標を手裏剣に当たらないように下に移動した。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイケツ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ザヒョウ </t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シュリケ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">アタラナイ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">イドウシタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +113,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +155,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E16F98F-F015-EE47-AE6F-36FF6480828B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.28515625" defaultRowHeight="13.75" customHeight="1"/>
@@ -760,9 +803,15 @@
     <col min="1" max="16384" width="2.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="71" customHeight="1">
+    <row r="1" spans="1:48" ht="71" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
